--- a/xlsx/乔纳森·齐特林_intext.xlsx
+++ b/xlsx/乔纳森·齐特林_intext.xlsx
@@ -29,7 +29,7 @@
     <t>美国</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_乔纳森·齐特林</t>
+    <t>政策_政策_维基百科_乔纳森·齐特林</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%BE%E8%A5%BF%E6%B3%95%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
